--- a/data/trans_dic/P21_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes</t>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,22 +602,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,52%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 25,32</t>
+          <t>11,81; 25,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 17,45</t>
+          <t>6,58; 16,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,85; 27,72</t>
+          <t>15,36; 28,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 29,27</t>
+          <t>16,25; 29,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 24,3</t>
+          <t>15,14; 24,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 21,07</t>
+          <t>12,59; 21,36</t>
         </is>
       </c>
     </row>
@@ -681,12 +682,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,17 +697,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>22,86%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23,72%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>23,63%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>23,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>23,25%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,8; 32,34</t>
+          <t>14,29; 33,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 36,34</t>
+          <t>15,11; 39,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,72; 32,44</t>
+          <t>20,46; 32,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 31,47</t>
+          <t>17,17; 30,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,93; 30,41</t>
+          <t>19,11; 29,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 30,47</t>
+          <t>18,18; 31,62</t>
         </is>
       </c>
     </row>
@@ -766,17 +767,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>23,04%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,57; 38,43</t>
+          <t>23,96; 38,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 25,5</t>
+          <t>16,18; 27,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,1; 30,56</t>
+          <t>20,91; 29,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,6; 29,66</t>
+          <t>20,06; 30,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,82; 32,18</t>
+          <t>24,15; 32,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,46; 26,27</t>
+          <t>19,72; 27,06</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>19,14%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 21,52</t>
+          <t>13,28; 21,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 22,98</t>
+          <t>12,73; 24,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,43; 26,21</t>
+          <t>17,46; 26,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 25,33</t>
+          <t>16,96; 26,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 22,62</t>
+          <t>16,4; 22,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 22,83</t>
+          <t>16,0; 22,94</t>
         </is>
       </c>
     </row>
@@ -926,17 +927,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,63; 30,89</t>
+          <t>18,47; 30,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 18,34</t>
+          <t>9,19; 18,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,99; 37,67</t>
+          <t>25,46; 38,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,24; 25,4</t>
+          <t>14,41; 25,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,32; 32,06</t>
+          <t>23,35; 32,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 20,0</t>
+          <t>13,15; 19,7</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>22,01%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,56; 42,68</t>
+          <t>29,16; 43,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,17; 30,77</t>
+          <t>13,09; 28,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,26; 36,69</t>
+          <t>24,83; 36,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,82; 29,63</t>
+          <t>19,25; 31,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,7; 37,53</t>
+          <t>28,54; 37,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,27; 26,69</t>
+          <t>17,95; 27,23</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,84; 27,58</t>
+          <t>21,65; 27,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,11; 20,94</t>
+          <t>15,49; 21,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,67; 28,17</t>
+          <t>23,72; 28,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,93; 24,44</t>
+          <t>20,41; 24,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,69; 27,31</t>
+          <t>23,54; 27,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,24; 21,91</t>
+          <t>18,72; 22,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>88629</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>54615</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>97743</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>105159</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>186372</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>159774</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60583; 128509</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32770; 84166</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>71095; 130098</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>76171; 137866</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>147776; 236920</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>121775; 206593</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>120816</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>139374</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>135852</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>118068</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>256668</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>257442</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>80488; 187698</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>86646; 225522</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>106176; 169254</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>88646; 155160</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>206787; 318302</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>198122; 344518</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>207645</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>146441</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>175730</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>175331</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>383375</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>321772</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>161947; 261107</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>111078; 186297</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>145136; 207367</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>142496; 213312</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>330857; 447449</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>275393; 378017</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>108856</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>111679</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>151260</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>143458</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>255137</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>84801; 139373</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>82378; 155380</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>122765; 185148</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>116248; 180913</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>220039; 304561</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>213213; 305824</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>123999</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>65329</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>156533</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>97189</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>280533</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>162518</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>94536; 156814</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>45534; 90012</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>127942; 190905</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>73015; 128026</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>236823; 329854</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>131772; 197411</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>195950</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>102251</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>221846</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>173382</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>417796</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>275633</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>159465; 235998</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>70698; 155438</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>181493; 263331</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>137038; 220974</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>364709; 474262</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>224746; 341008</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>707.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>845895</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>619690</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>938964</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>812586</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1784860</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1432276</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>746943; 943357</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>533084; 739833</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>856944; 1021534</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>734731; 898320</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1662789; 1913826</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1317747; 1575349</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>